--- a/web/uploads/Книга1.xlsx
+++ b/web/uploads/Книга1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="9600" windowHeight="5630"/>
+    <workbookView activeTab="0" windowWidth="12800" windowHeight="7700"/>
   </bookViews>
   <sheets>
     <sheet name="Лист номер 2" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
   <si>
-    <t>City</t>
+    <t>Имя 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
       <u val="none"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
+      <vertAlign val="baseline"/>
+      <sz val="10"/>
+      <strike val="0"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <u val="none"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <vertAlign val="baseline"/>
       <sz val="10"/>
       <strike val="0"/>
@@ -69,8 +79,11 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellXfs>
@@ -82,115 +95,112 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="I1:AMK14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" style="0" width="9.142307692307693"/>
+    <col min="1" max="1025" style="0" width="10.45" bestFit="1" customWidth="1"/>
+    <col min="1026" max="16384" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5">
-      <c r="A1" t="inlineStr">
+    <row r="1" spans="9:1025" ht="13.5">
+      <c r="I1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="9:1025" ht="13.5">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Строка</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Смоленск</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Имя </t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="9:1025" ht="13.5">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Тула</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Имя 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="9:1025" ht="13.5">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Керчь</t>
+        </is>
+      </c>
+      <c r="K4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Смоленск</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Имя 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Тула</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Имя 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Имя 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    </row>
+    <row r="5" spans="9:1025" ht="13.5">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Волгоград</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Имя 4</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.5">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Имя 5</t>
-        </is>
-      </c>
-    </row>
+    <row r="6" spans="9:1025" ht="13.5">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6"/>
+    </row>
+    <row r="9" spans="9:1025" ht="13.5"/>
+    <row r="10" spans="9:1025" ht="13.5"/>
+    <row r="11" spans="9:1025" ht="13.5"/>
+    <row r="12" spans="9:1025" ht="13.5"/>
+    <row r="13" spans="9:1025" ht="13.5"/>
+    <row r="14" spans="9:1025" ht="13.5"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>
-  <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
+  <pageSetup blackAndWhite="0" cellComments="atEnd" copies="1" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;CSans,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;CSans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/web/uploads/Книга1.xlsx
+++ b/web/uploads/Книга1.xlsx
@@ -19,9 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
+  <si>
+    <t>Имя 2</t>
+  </si>
   <si>
     <t>Имя 3</t>
+  </si>
+  <si>
+    <t>Имя 4</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
   <dimension ref="I1:AMK14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -125,10 +131,8 @@
       </c>
     </row>
     <row r="2" spans="9:1025" ht="13.5">
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Строка</t>
-        </is>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -137,7 +141,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Имя </t>
+          <t>Имя 1</t>
         </is>
       </c>
     </row>
@@ -147,13 +151,11 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Тула</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Имя 2</t>
-        </is>
+          <t>Пермь</t>
+        </is>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="9:1025" ht="13.5">
@@ -166,26 +168,36 @@
         </is>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="9:1025" ht="13.5">
+      <c r="I5">
+        <v>4</v>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Волгоград</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Имя 4</t>
-        </is>
+      <c r="K5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="9:1025" ht="13.5">
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Имя 5</t>
+        </is>
+      </c>
     </row>
     <row r="9" spans="9:1025" ht="13.5"/>
     <row r="10" spans="9:1025" ht="13.5"/>

--- a/web/uploads/Книга1.xlsx
+++ b/web/uploads/Книга1.xlsx
@@ -16,20 +16,6 @@
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" codePage="1252"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
-  <si>
-    <t>Имя 2</t>
-  </si>
-  <si>
-    <t>Имя 3</t>
-  </si>
-  <si>
-    <t>Имя 4</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -104,7 +90,7 @@
   <dimension ref="I1:AMK14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -146,29 +132,15 @@
       </c>
     </row>
     <row r="3" spans="9:1025" ht="13.5">
-      <c r="I3">
-        <v>2</v>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Пермь</t>
         </is>
       </c>
-      <c r="K3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="9:1025" ht="13.5">
       <c r="I4">
         <v>3</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Керчь</t>
-        </is>
-      </c>
-      <c r="K4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="9:1025" ht="13.5">
@@ -179,9 +151,6 @@
         <is>
           <t>Волгоград</t>
         </is>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="9:1025" ht="13.5">
